--- a/data/보유리스크율_일반/일반_특약보종별_직전1년손해액_201912.xlsx
+++ b/data/보유리스크율_일반/일반_특약보종별_직전1년손해액_201912.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046">
   <si>
     <t>RRNR_DAT_DVCD</t>
   </si>
@@ -26,10 +26,10 @@
     <t>RRNR_TTY_CD</t>
   </si>
   <si>
-    <t>OGL_LOSS</t>
-  </si>
-  <si>
-    <t>RN_LOSS</t>
+    <t>OGL_LOSS_1YR</t>
+  </si>
+  <si>
+    <t>RN_LOSS_1YR</t>
   </si>
   <si>
     <t>01</t>
@@ -722,6 +722,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2017OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10412</t>
   </si>
   <si>
@@ -734,9 +746,777 @@
     <t>1</t>
   </si>
   <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2015KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10411</t>
+  </si>
+  <si>
+    <t>U2017KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10421</t>
+  </si>
+  <si>
+    <t>U2015KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2016OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10423</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10445</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2019KRS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10445</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10424</t>
+  </si>
+  <si>
+    <t>U2019KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10435</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10484</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10427</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10415</t>
+  </si>
+  <si>
+    <t>U2017OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10569</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10433</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10433</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10437</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10505</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10469</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13401</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10422</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10650</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10471</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10424</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10472</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13603</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10652</t>
   </si>
   <si>
+    <t>U2018OVS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10569</t>
+  </si>
+  <si>
+    <t>U2019KRS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10446</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10427</t>
+  </si>
+  <si>
+    <t>U2014KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>U2014KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10460</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10426</t>
+  </si>
+  <si>
+    <t>U2017KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10421</t>
+  </si>
+  <si>
+    <t>U2017KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10501</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10506</t>
+  </si>
+  <si>
+    <t>U2018KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10472</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10423</t>
+  </si>
+  <si>
+    <t>U2017KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10436</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10414</t>
+  </si>
+  <si>
+    <t>U2019KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2015OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10448</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2013OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10426</t>
+  </si>
+  <si>
+    <t>U2015KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10414</t>
+  </si>
+  <si>
+    <t>U2015KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10401</t>
+  </si>
+  <si>
+    <t>U2016KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10429</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10447</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10484</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2015KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10426</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10469</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10414</t>
+  </si>
+  <si>
+    <t>U2016KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10469</t>
+  </si>
+  <si>
+    <t>U2017KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
     <t>U2017OVS1040001000</t>
   </si>
   <si>
@@ -746,9 +1526,129 @@
     <t>1</t>
   </si>
   <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10501</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10513</t>
+  </si>
+  <si>
+    <t>U2019KRS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10464</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10421</t>
+  </si>
+  <si>
+    <t>U2013KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10484</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10653</t>
   </si>
   <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10441</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
     <t>U2015KRQ1043001000</t>
   </si>
   <si>
@@ -758,19 +1658,595 @@
     <t>1</t>
   </si>
   <si>
+    <t>10471</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2015KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2018OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10425</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>U2018OVS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>U2019KRS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10425</t>
+  </si>
+  <si>
+    <t>U2015KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10441</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2014KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>U2019KRS1040003000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>U2018KRS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10650</t>
+  </si>
+  <si>
+    <t>U2018OVS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10421</t>
+  </si>
+  <si>
+    <t>U2016KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10435</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10513</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10441</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10471</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10432</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10401</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10423</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10447</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10423</t>
+  </si>
+  <si>
+    <t>U2019KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10471</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10411</t>
   </si>
   <si>
-    <t>U2017KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10421</t>
+    <t>U2019KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10427</t>
+  </si>
+  <si>
+    <t>U2019KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>U2013KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2016KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10447</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10413</t>
+  </si>
+  <si>
+    <t>U2019KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10426</t>
+  </si>
+  <si>
+    <t>U2018KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10413</t>
+  </si>
+  <si>
+    <t>U2018KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10443</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10447</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10445</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10448</t>
+  </si>
+  <si>
+    <t>U2014KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>U2013KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10469</t>
   </si>
   <si>
     <t>U2015KRQ1042001000</t>
@@ -782,1822 +2258,358 @@
     <t>1</t>
   </si>
   <si>
+    <t>10445</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10469</t>
+  </si>
+  <si>
+    <t>U2019KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10653</t>
+  </si>
+  <si>
+    <t>U2016KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10484</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10437</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10650</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10429</t>
+  </si>
+  <si>
+    <t>U2019KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10472</t>
+  </si>
+  <si>
+    <t>U2013KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10446</t>
+  </si>
+  <si>
+    <t>U2015KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10446</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10424</t>
+  </si>
+  <si>
+    <t>U2017KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10650</t>
+  </si>
+  <si>
+    <t>U2018OVS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10423</t>
+  </si>
+  <si>
+    <t>U2014KRQ1042001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>U2015KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10431</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10445</t>
+  </si>
+  <si>
+    <t>U2016KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>U2016KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10506</t>
+  </si>
+  <si>
+    <t>U2016KRS1041001001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2017KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10518</t>
+  </si>
+  <si>
+    <t>U2017KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10509</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10448</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10484</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10460</t>
+  </si>
+  <si>
+    <t>U2018KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10401</t>
+  </si>
+  <si>
+    <t>U2018KRS1040001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10460</t>
+  </si>
+  <si>
+    <t>U2019KRQ1043001000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10503</t>
   </si>
   <si>
-    <t>U2016OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10423</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10445</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2019KRS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10445</t>
+    <t>U2018OVS1040002000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10442</t>
   </si>
   <si>
     <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10424</t>
-  </si>
-  <si>
-    <t>U2019KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10435</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>U2013KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10484</t>
-  </si>
-  <si>
-    <t>U2013KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10427</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10415</t>
-  </si>
-  <si>
-    <t>U2017OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10569</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10433</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10433</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10437</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10505</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10469</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10442</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13401</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10422</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10650</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10471</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10424</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10472</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10509</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13603</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2018OVS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10569</t>
-  </si>
-  <si>
-    <t>U2019KRS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10446</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10427</t>
-  </si>
-  <si>
-    <t>U2014KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>U2014KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10460</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10426</t>
-  </si>
-  <si>
-    <t>U2017KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10421</t>
-  </si>
-  <si>
-    <t>U2017KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10501</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10506</t>
-  </si>
-  <si>
-    <t>U2018KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10472</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2013KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10423</t>
-  </si>
-  <si>
-    <t>U2017KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10436</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10414</t>
-  </si>
-  <si>
-    <t>U2019KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2015OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10448</t>
-  </si>
-  <si>
-    <t>U2013KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2013OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10426</t>
-  </si>
-  <si>
-    <t>U2015KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10414</t>
-  </si>
-  <si>
-    <t>U2015KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10401</t>
-  </si>
-  <si>
-    <t>U2016KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10429</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10447</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10484</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2015KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10426</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10469</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10414</t>
-  </si>
-  <si>
-    <t>U2016KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10469</t>
-  </si>
-  <si>
-    <t>U2017KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2017OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10501</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10513</t>
-  </si>
-  <si>
-    <t>U2019KRS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10464</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10421</t>
-  </si>
-  <si>
-    <t>U2013KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10484</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10441</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10442</t>
-  </si>
-  <si>
-    <t>U2015KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10471</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2013KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2015KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2018OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10425</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10509</t>
-  </si>
-  <si>
-    <t>U2018OVS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2019KRS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10425</t>
-  </si>
-  <si>
-    <t>U2015KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10441</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2014KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10509</t>
-  </si>
-  <si>
-    <t>U2019KRS1040003000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10509</t>
-  </si>
-  <si>
-    <t>U2018KRS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10650</t>
-  </si>
-  <si>
-    <t>U2018OVS1040002000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10421</t>
-  </si>
-  <si>
-    <t>U2016KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10442</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10435</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10513</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10441</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10471</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10432</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10401</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10423</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10447</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10423</t>
-  </si>
-  <si>
-    <t>U2019KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10471</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13416</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10411</t>
-  </si>
-  <si>
-    <t>U2019KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10427</t>
-  </si>
-  <si>
-    <t>U2019KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>U2013KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2016KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10447</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10413</t>
-  </si>
-  <si>
-    <t>U2019KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10426</t>
-  </si>
-  <si>
-    <t>U2018KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10413</t>
-  </si>
-  <si>
-    <t>U2018KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10443</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10447</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10445</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10448</t>
-  </si>
-  <si>
-    <t>U2014KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10652</t>
-  </si>
-  <si>
-    <t>U2013KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10469</t>
-  </si>
-  <si>
-    <t>U2015KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10445</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10469</t>
-  </si>
-  <si>
-    <t>U2019KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10653</t>
-  </si>
-  <si>
-    <t>U2016KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10484</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10437</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10650</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10429</t>
-  </si>
-  <si>
-    <t>U2019KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10446</t>
-  </si>
-  <si>
-    <t>U2015KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10446</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10424</t>
-  </si>
-  <si>
-    <t>U2017KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10650</t>
-  </si>
-  <si>
-    <t>U2018OVS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10423</t>
-  </si>
-  <si>
-    <t>U2014KRQ1042001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>U2015KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10431</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10445</t>
-  </si>
-  <si>
-    <t>U2016KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>U2016KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10506</t>
-  </si>
-  <si>
-    <t>U2016KRS1041001001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2017KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10400</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10518</t>
-  </si>
-  <si>
-    <t>U2017KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10509</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10440</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10448</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10484</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10460</t>
-  </si>
-  <si>
-    <t>U2018KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10401</t>
-  </si>
-  <si>
-    <t>U2018KRS1040001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10460</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10442</t>
-  </si>
-  <si>
-    <t>U2019KRQ1043001000</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10503</t>
-  </si>
-  <si>
-    <t>U2018OVS1040002000</t>
   </si>
   <si>
     <t>01</t>
@@ -3489,7 +3501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F261"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
@@ -3528,7 +3540,7 @@
         <v>2961282</v>
       </c>
       <c r="F2">
-        <v>1166264</v>
+        <v>-13003730</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -3548,7 +3560,7 @@
         <v>-125258670</v>
       </c>
       <c r="F3">
-        <v>-25051734</v>
+        <v>12634926</v>
       </c>
     </row>
     <row r="4" ht="15">
@@ -3588,7 +3600,7 @@
         <v>23313654</v>
       </c>
       <c r="F5">
-        <v>-3466738</v>
+        <v>79941378</v>
       </c>
     </row>
     <row r="6" ht="15">
@@ -3608,7 +3620,7 @@
         <v>172699</v>
       </c>
       <c r="F6">
-        <v>51810</v>
+        <v>-5772300</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -3628,7 +3640,7 @@
         <v>17170440</v>
       </c>
       <c r="F7">
-        <v>-1565912</v>
+        <v>67551565</v>
       </c>
     </row>
     <row r="8" ht="15">
@@ -3645,10 +3657,10 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>107910064</v>
+        <v>113552561</v>
       </c>
       <c r="F8">
-        <v>21423013</v>
+        <v>46082205</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -3668,7 +3680,7 @@
         <v>146098400</v>
       </c>
       <c r="F9">
-        <v>23610584</v>
+        <v>62361690</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -3685,10 +3697,10 @@
         <v>41</v>
       </c>
       <c r="E10">
-        <v>4330919795</v>
+        <v>4336408995</v>
       </c>
       <c r="F10">
-        <v>777111315</v>
+        <v>572771020</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -3708,7 +3720,7 @@
         <v>81651751</v>
       </c>
       <c r="F11">
-        <v>14747013</v>
+        <v>75267130</v>
       </c>
     </row>
     <row r="12" ht="15">
@@ -3745,10 +3757,10 @@
         <v>53</v>
       </c>
       <c r="E13">
-        <v>-19657611</v>
+        <v>-30384211</v>
       </c>
       <c r="F13">
-        <v>-36962445</v>
+        <v>298437814</v>
       </c>
     </row>
     <row r="14" ht="15">
@@ -3768,7 +3780,7 @@
         <v>8976955</v>
       </c>
       <c r="F14">
-        <v>3493087</v>
+        <v>15148163</v>
       </c>
     </row>
     <row r="15" ht="15">
@@ -3788,7 +3800,7 @@
         <v>32991000</v>
       </c>
       <c r="F15">
-        <v>2973360</v>
+        <v>31698880</v>
       </c>
     </row>
     <row r="16" ht="15">
@@ -3808,7 +3820,7 @@
         <v>198230</v>
       </c>
       <c r="F16">
-        <v>132774</v>
+        <v>-4538392</v>
       </c>
     </row>
     <row r="17" ht="15">
@@ -3828,7 +3840,7 @@
         <v>77351628</v>
       </c>
       <c r="F17">
-        <v>38675815</v>
+        <v>39190380</v>
       </c>
     </row>
     <row r="18" ht="15">
@@ -3868,7 +3880,7 @@
         <v>34003330</v>
       </c>
       <c r="F19">
-        <v>10200999</v>
+        <v>35424266</v>
       </c>
     </row>
     <row r="20" ht="15">
@@ -3888,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-11061635</v>
       </c>
     </row>
     <row r="21" ht="15">
@@ -3908,7 +3920,7 @@
         <v>-3000000</v>
       </c>
       <c r="F21">
-        <v>-1500000</v>
+        <v>16469364</v>
       </c>
     </row>
     <row r="22" ht="15">
@@ -3928,7 +3940,7 @@
         <v>500000</v>
       </c>
       <c r="F22">
-        <v>100000</v>
+        <v>2793606</v>
       </c>
     </row>
     <row r="23" ht="15">
@@ -3945,10 +3957,10 @@
         <v>93</v>
       </c>
       <c r="E23">
-        <v>20859244</v>
+        <v>20930632</v>
       </c>
       <c r="F23">
-        <v>4292377</v>
+        <v>27679003</v>
       </c>
     </row>
     <row r="24" ht="15">
@@ -3968,7 +3980,7 @@
         <v>-97820</v>
       </c>
       <c r="F24">
-        <v>-48907</v>
+        <v>-1207127</v>
       </c>
     </row>
     <row r="25" ht="15">
@@ -3988,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-5096400</v>
       </c>
     </row>
     <row r="26" ht="15">
@@ -4008,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>67400</v>
       </c>
     </row>
     <row r="27" ht="15">
@@ -4028,7 +4040,7 @@
         <v>-11373600</v>
       </c>
       <c r="F27">
-        <v>-2139720</v>
+        <v>11256230</v>
       </c>
     </row>
     <row r="28" ht="15">
@@ -4048,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>284593187</v>
       </c>
     </row>
     <row r="29" ht="15">
@@ -4068,7 +4080,7 @@
         <v>1626774</v>
       </c>
       <c r="F29">
-        <v>325355</v>
+        <v>2018958</v>
       </c>
     </row>
     <row r="30" ht="15">
@@ -4088,7 +4100,7 @@
         <v>910764</v>
       </c>
       <c r="F30">
-        <v>257326</v>
+        <v>2406099</v>
       </c>
     </row>
     <row r="31" ht="15">
@@ -4108,7 +4120,7 @@
         <v>-60506600</v>
       </c>
       <c r="F31">
-        <v>-35552760</v>
+        <v>-35639904</v>
       </c>
     </row>
     <row r="32" ht="15">
@@ -4128,7 +4140,7 @@
         <v>1226000</v>
       </c>
       <c r="F32">
-        <v>371400</v>
+        <v>4418650</v>
       </c>
     </row>
     <row r="33" ht="15">
@@ -4148,7 +4160,7 @@
         <v>27129685</v>
       </c>
       <c r="F33">
-        <v>8138906</v>
+        <v>21124932</v>
       </c>
     </row>
     <row r="34" ht="15">
@@ -4168,7 +4180,7 @@
         <v>8376792</v>
       </c>
       <c r="F34">
-        <v>1359202</v>
+        <v>13274815</v>
       </c>
     </row>
     <row r="35" ht="15">
@@ -4188,7 +4200,7 @@
         <v>691000</v>
       </c>
       <c r="F35">
-        <v>207300</v>
+        <v>507300</v>
       </c>
     </row>
     <row r="36" ht="15">
@@ -4208,7 +4220,7 @@
         <v>800742514</v>
       </c>
       <c r="F36">
-        <v>160148503</v>
+        <v>511880608</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -4228,7 +4240,7 @@
         <v>59353352</v>
       </c>
       <c r="F37">
-        <v>29676678</v>
+        <v>103195710</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -4248,7 +4260,7 @@
         <v>34056000</v>
       </c>
       <c r="F38">
-        <v>17028000</v>
+        <v>76272850</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -4268,7 +4280,7 @@
         <v>6248894468</v>
       </c>
       <c r="F39">
-        <v>1156660055</v>
+        <v>2058489403</v>
       </c>
     </row>
     <row r="40" ht="15">
@@ -4288,7 +4300,7 @@
         <v>198056855</v>
       </c>
       <c r="F40">
-        <v>27240223</v>
+        <v>77596488</v>
       </c>
     </row>
     <row r="41" ht="15">
@@ -4308,7 +4320,7 @@
         <v>-26490771</v>
       </c>
       <c r="F41">
-        <v>-2822294</v>
+        <v>11619467</v>
       </c>
     </row>
     <row r="42" ht="15">
@@ -4328,7 +4340,7 @@
         <v>91305000</v>
       </c>
       <c r="F42">
-        <v>45652500</v>
+        <v>49902500</v>
       </c>
     </row>
     <row r="43" ht="15">
@@ -4348,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" ht="15">
@@ -4368,7 +4380,7 @@
         <v>14402000</v>
       </c>
       <c r="F44">
-        <v>4320600</v>
+        <v>20535420</v>
       </c>
     </row>
     <row r="45" ht="15">
@@ -4388,7 +4400,7 @@
         <v>2070876</v>
       </c>
       <c r="F45">
-        <v>310632</v>
+        <v>4265832</v>
       </c>
     </row>
     <row r="46" ht="15">
@@ -4408,7 +4420,7 @@
         <v>54300000</v>
       </c>
       <c r="F46">
-        <v>4602000</v>
+        <v>18152570</v>
       </c>
     </row>
     <row r="47" ht="15">
@@ -4428,7 +4440,7 @@
         <v>2110000</v>
       </c>
       <c r="F47">
-        <v>1688000</v>
+        <v>2647000</v>
       </c>
     </row>
     <row r="48" ht="15">
@@ -4448,7 +4460,7 @@
         <v>207086</v>
       </c>
       <c r="F48">
-        <v>-1225748</v>
+        <v>174524252</v>
       </c>
     </row>
     <row r="49" ht="15">
@@ -4468,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="50" ht="15">
@@ -4488,7 +4500,7 @@
         <v>5087500</v>
       </c>
       <c r="F50">
-        <v>2543750</v>
+        <v>9219665</v>
       </c>
     </row>
     <row r="51" ht="15">
@@ -4508,7 +4520,7 @@
         <v>393426809</v>
       </c>
       <c r="F51">
-        <v>275398766</v>
+        <v>489674467</v>
       </c>
     </row>
     <row r="52" ht="15">
@@ -4528,7 +4540,7 @@
         <v>7527000</v>
       </c>
       <c r="F52">
-        <v>6021600</v>
+        <v>-21967844</v>
       </c>
     </row>
     <row r="53" ht="15">
@@ -4548,7 +4560,7 @@
         <v>7337574</v>
       </c>
       <c r="F53">
-        <v>1467515</v>
+        <v>2467515</v>
       </c>
     </row>
     <row r="54" ht="15">
@@ -4568,7 +4580,7 @@
         <v>690000</v>
       </c>
       <c r="F54">
-        <v>138000</v>
+        <v>938000</v>
       </c>
     </row>
     <row r="55" ht="15">
@@ -4588,7 +4600,7 @@
         <v>-648157</v>
       </c>
       <c r="F55">
-        <v>-65770</v>
+        <v>150723</v>
       </c>
     </row>
     <row r="56" ht="15">
@@ -4608,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1240800</v>
       </c>
     </row>
     <row r="57" ht="15">
@@ -4628,7 +4640,7 @@
         <v>-1034000</v>
       </c>
       <c r="F57">
-        <v>-310201</v>
+        <v>589799</v>
       </c>
     </row>
     <row r="58" ht="15">
@@ -4648,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>21417462</v>
       </c>
     </row>
     <row r="59" ht="15">
@@ -4665,10 +4677,10 @@
         <v>237</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>3669407</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>-7053282</v>
       </c>
     </row>
     <row r="60" ht="15">
@@ -4685,10 +4697,10 @@
         <v>241</v>
       </c>
       <c r="E60">
-        <v>3647407</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>-29800</v>
+        <v>66051</v>
       </c>
     </row>
     <row r="61" ht="15">
@@ -4748,7 +4760,7 @@
         <v>132369205</v>
       </c>
       <c r="F63">
-        <v>26295614</v>
+        <v>116637133</v>
       </c>
     </row>
     <row r="64" ht="15">
@@ -4768,7 +4780,7 @@
         <v>19019032</v>
       </c>
       <c r="F64">
-        <v>283493</v>
+        <v>17400521</v>
       </c>
     </row>
     <row r="65" ht="15">
@@ -4788,7 +4800,7 @@
         <v>2395172</v>
       </c>
       <c r="F65">
-        <v>479034</v>
+        <v>567951</v>
       </c>
     </row>
     <row r="66" ht="15">
@@ -4808,7 +4820,7 @@
         <v>17076335</v>
       </c>
       <c r="F66">
-        <v>5122900</v>
+        <v>19799256</v>
       </c>
     </row>
     <row r="67" ht="15">
@@ -4828,7 +4840,7 @@
         <v>55690357</v>
       </c>
       <c r="F67">
-        <v>8353554</v>
+        <v>80583223</v>
       </c>
     </row>
     <row r="68" ht="15">
@@ -4848,7 +4860,7 @@
         <v>24451250</v>
       </c>
       <c r="F68">
-        <v>7335375</v>
+        <v>18983769</v>
       </c>
     </row>
     <row r="69" ht="15">
@@ -4868,7 +4880,7 @@
         <v>4567890</v>
       </c>
       <c r="F69">
-        <v>913578</v>
+        <v>2984932</v>
       </c>
     </row>
     <row r="70" ht="15">
@@ -4888,7 +4900,7 @@
         <v>-822000</v>
       </c>
       <c r="F70">
-        <v>-261600</v>
+        <v>-3979232</v>
       </c>
     </row>
     <row r="71" ht="15">
@@ -4908,7 +4920,7 @@
         <v>48480</v>
       </c>
       <c r="F71">
-        <v>14544</v>
+        <v>-36799410</v>
       </c>
     </row>
     <row r="72" ht="15">
@@ -4948,7 +4960,7 @@
         <v>15439886</v>
       </c>
       <c r="F73">
-        <v>3087977</v>
+        <v>12700226</v>
       </c>
     </row>
     <row r="74" ht="15">
@@ -4968,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="75" ht="15">
@@ -4988,7 +5000,7 @@
         <v>14704147</v>
       </c>
       <c r="F75">
-        <v>10292903</v>
+        <v>14851443</v>
       </c>
     </row>
     <row r="76" ht="15">
@@ -5008,7 +5020,7 @@
         <v>4000000</v>
       </c>
       <c r="F76">
-        <v>2000000</v>
+        <v>7220750</v>
       </c>
     </row>
     <row r="77" ht="15">
@@ -5025,10 +5037,10 @@
         <v>309</v>
       </c>
       <c r="E77">
-        <v>907435</v>
+        <v>-1092565</v>
       </c>
       <c r="F77">
-        <v>-2446956</v>
+        <v>53550550</v>
       </c>
     </row>
     <row r="78" ht="15">
@@ -5048,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>500051</v>
       </c>
     </row>
     <row r="79" ht="15">
@@ -5088,7 +5100,7 @@
         <v>3126000</v>
       </c>
       <c r="F80">
-        <v>625200</v>
+        <v>2452000</v>
       </c>
     </row>
     <row r="81" ht="15">
@@ -5108,7 +5120,7 @@
         <v>41015140</v>
       </c>
       <c r="F81">
-        <v>8203027</v>
+        <v>42611861</v>
       </c>
     </row>
     <row r="82" ht="15">
@@ -5128,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="83" ht="15">
@@ -5148,7 +5160,7 @@
         <v>-850000</v>
       </c>
       <c r="F83">
-        <v>-405000</v>
+        <v>-5984328</v>
       </c>
     </row>
     <row r="84" ht="15">
@@ -5168,7 +5180,7 @@
         <v>55000000</v>
       </c>
       <c r="F84">
-        <v>27500000</v>
+        <v>36720864</v>
       </c>
     </row>
     <row r="85" ht="15">
@@ -5188,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>12582169</v>
       </c>
     </row>
     <row r="86" ht="15">
@@ -5208,7 +5220,7 @@
         <v>1375112600</v>
       </c>
       <c r="F86">
-        <v>273522521</v>
+        <v>281074816</v>
       </c>
     </row>
     <row r="87" ht="15">
@@ -5228,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="88" ht="15">
@@ -5248,7 +5260,7 @@
         <v>-5923390</v>
       </c>
       <c r="F88">
-        <v>-1184678</v>
+        <v>-669118</v>
       </c>
     </row>
     <row r="89" ht="15">
@@ -5268,7 +5280,7 @@
         <v>314114</v>
       </c>
       <c r="F89">
-        <v>94234</v>
+        <v>44063587</v>
       </c>
     </row>
     <row r="90" ht="15">
@@ -5288,7 +5300,7 @@
         <v>1000000</v>
       </c>
       <c r="F90">
-        <v>300000</v>
+        <v>831633</v>
       </c>
     </row>
     <row r="91" ht="15">
@@ -5308,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>-21960000</v>
       </c>
     </row>
     <row r="92" ht="15">
@@ -5328,7 +5340,7 @@
         <v>11234000</v>
       </c>
       <c r="F92">
-        <v>2246800</v>
+        <v>10956040</v>
       </c>
     </row>
     <row r="93" ht="15">
@@ -5348,7 +5360,7 @@
         <v>5727460</v>
       </c>
       <c r="F93">
-        <v>265503</v>
+        <v>99087414</v>
       </c>
     </row>
     <row r="94" ht="15">
@@ -5368,7 +5380,7 @@
         <v>-3200000</v>
       </c>
       <c r="F94">
-        <v>-640000</v>
+        <v>714080</v>
       </c>
     </row>
     <row r="95" ht="15">
@@ -5388,7 +5400,7 @@
         <v>181560</v>
       </c>
       <c r="F95">
-        <v>121040</v>
+        <v>10582893</v>
       </c>
     </row>
     <row r="96" ht="15">
@@ -5408,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="97" ht="15">
@@ -5448,7 +5460,7 @@
         <v>1250640</v>
       </c>
       <c r="F98">
-        <v>375192</v>
+        <v>905517</v>
       </c>
     </row>
     <row r="99" ht="15">
@@ -5468,7 +5480,7 @@
         <v>62593600</v>
       </c>
       <c r="F99">
-        <v>5007488</v>
+        <v>10514888</v>
       </c>
     </row>
     <row r="100" ht="15">
@@ -5488,7 +5500,7 @@
         <v>-50967496</v>
       </c>
       <c r="F100">
-        <v>-22121253</v>
+        <v>-9654902</v>
       </c>
     </row>
     <row r="101" ht="15">
@@ -5508,7 +5520,7 @@
         <v>463111750</v>
       </c>
       <c r="F101">
-        <v>92622350</v>
+        <v>329282019</v>
       </c>
     </row>
     <row r="102" ht="15">
@@ -5528,7 +5540,7 @@
         <v>1092500</v>
       </c>
       <c r="F102">
-        <v>874000</v>
+        <v>10569320</v>
       </c>
     </row>
     <row r="103" ht="15">
@@ -5548,7 +5560,7 @@
         <v>577090883</v>
       </c>
       <c r="F103">
-        <v>132371759</v>
+        <v>657883437</v>
       </c>
     </row>
     <row r="104" ht="15">
@@ -5565,10 +5577,10 @@
         <v>417</v>
       </c>
       <c r="E104">
-        <v>3300633410</v>
+        <v>3301697410</v>
       </c>
       <c r="F104">
-        <v>659240681</v>
+        <v>552229706</v>
       </c>
     </row>
     <row r="105" ht="15">
@@ -5588,7 +5600,7 @@
         <v>-225693683</v>
       </c>
       <c r="F105">
-        <v>-158546777</v>
+        <v>573491981</v>
       </c>
     </row>
     <row r="106" ht="15">
@@ -5608,7 +5620,7 @@
         <v>66472101</v>
       </c>
       <c r="F106">
-        <v>44799930</v>
+        <v>77091898</v>
       </c>
     </row>
     <row r="107" ht="15">
@@ -5628,7 +5640,7 @@
         <v>360500</v>
       </c>
       <c r="F107">
-        <v>108150</v>
+        <v>711664</v>
       </c>
     </row>
     <row r="108" ht="15">
@@ -5648,7 +5660,7 @@
         <v>18239682</v>
       </c>
       <c r="F108">
-        <v>3647936</v>
+        <v>9061213</v>
       </c>
     </row>
     <row r="109" ht="15">
@@ -5668,7 +5680,7 @@
         <v>-51687867</v>
       </c>
       <c r="F109">
-        <v>-15506360</v>
+        <v>122233942</v>
       </c>
     </row>
     <row r="110" ht="15">
@@ -5688,7 +5700,7 @@
         <v>110887270</v>
       </c>
       <c r="F110">
-        <v>22177454</v>
+        <v>56295378</v>
       </c>
     </row>
     <row r="111" ht="15">
@@ -5708,7 +5720,7 @@
         <v>54546433</v>
       </c>
       <c r="F111">
-        <v>6759909</v>
+        <v>-2685224</v>
       </c>
     </row>
     <row r="112" ht="15">
@@ -5728,7 +5740,7 @@
         <v>-21475</v>
       </c>
       <c r="F112">
-        <v>-10737</v>
+        <v>533220</v>
       </c>
     </row>
     <row r="113" ht="15">
@@ -5768,7 +5780,7 @@
         <v>155200</v>
       </c>
       <c r="F114">
-        <v>12416</v>
+        <v>9179358</v>
       </c>
     </row>
     <row r="115" ht="15">
@@ -5788,7 +5800,7 @@
         <v>164251</v>
       </c>
       <c r="F115">
-        <v>58900</v>
+        <v>282900</v>
       </c>
     </row>
     <row r="116" ht="15">
@@ -5808,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>-382600</v>
       </c>
     </row>
     <row r="117" ht="15">
@@ -5828,7 +5840,7 @@
         <v>12318210</v>
       </c>
       <c r="F117">
-        <v>2463642</v>
+        <v>5202406</v>
       </c>
     </row>
     <row r="118" ht="15">
@@ -5888,7 +5900,7 @@
         <v>-194489692</v>
       </c>
       <c r="F120">
-        <v>-72415707</v>
+        <v>69025900</v>
       </c>
     </row>
     <row r="121" ht="15">
@@ -5908,7 +5920,7 @@
         <v>100185900</v>
       </c>
       <c r="F121">
-        <v>8014872</v>
+        <v>30585544</v>
       </c>
     </row>
     <row r="122" ht="15">
@@ -5928,7 +5940,7 @@
         <v>2742905</v>
       </c>
       <c r="F122">
-        <v>548581</v>
+        <v>12176759</v>
       </c>
     </row>
     <row r="123" ht="15">
@@ -5948,7 +5960,7 @@
         <v>-32822816</v>
       </c>
       <c r="F123">
-        <v>-6659421</v>
+        <v>54762412</v>
       </c>
     </row>
     <row r="124" ht="15">
@@ -5968,7 +5980,7 @@
         <v>35121583</v>
       </c>
       <c r="F124">
-        <v>7024317</v>
+        <v>51542436</v>
       </c>
     </row>
     <row r="125" ht="15">
@@ -5988,7 +6000,7 @@
         <v>-258338417</v>
       </c>
       <c r="F125">
-        <v>44296299</v>
+        <v>270599166</v>
       </c>
     </row>
     <row r="126" ht="15">
@@ -6008,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>-874000</v>
       </c>
     </row>
     <row r="127" ht="15">
@@ -6028,7 +6040,7 @@
         <v>29607474</v>
       </c>
       <c r="F127">
-        <v>7009935</v>
+        <v>57762929</v>
       </c>
     </row>
     <row r="128" ht="15">
@@ -6045,10 +6057,10 @@
         <v>513</v>
       </c>
       <c r="E128">
-        <v>134692089</v>
+        <v>135059518</v>
       </c>
       <c r="F128">
-        <v>1807927</v>
+        <v>78616923</v>
       </c>
     </row>
     <row r="129" ht="15">
@@ -6068,7 +6080,7 @@
         <v>1076127312</v>
       </c>
       <c r="F129">
-        <v>751866017</v>
+        <v>3515747665</v>
       </c>
     </row>
     <row r="130" ht="15">
@@ -6088,7 +6100,7 @@
         <v>4262230</v>
       </c>
       <c r="F130">
-        <v>1278669</v>
+        <v>2173515</v>
       </c>
     </row>
     <row r="131" ht="15">
@@ -6108,7 +6120,7 @@
         <v>-4728730</v>
       </c>
       <c r="F131">
-        <v>-945746</v>
+        <v>-7087206</v>
       </c>
     </row>
     <row r="132" ht="15">
@@ -6128,7 +6140,7 @@
         <v>1397000</v>
       </c>
       <c r="F132">
-        <v>558800</v>
+        <v>2758800</v>
       </c>
     </row>
     <row r="133" ht="15">
@@ -6148,7 +6160,7 @@
         <v>748000</v>
       </c>
       <c r="F133">
-        <v>149600</v>
+        <v>1144600</v>
       </c>
     </row>
     <row r="134" ht="15">
@@ -6168,7 +6180,7 @@
         <v>2000000</v>
       </c>
       <c r="F134">
-        <v>1400000</v>
+        <v>-21429509</v>
       </c>
     </row>
     <row r="135" ht="15">
@@ -6188,7 +6200,7 @@
         <v>-350900</v>
       </c>
       <c r="F135">
-        <v>-105270</v>
+        <v>5034003</v>
       </c>
     </row>
     <row r="136" ht="15">
@@ -6228,7 +6240,7 @@
         <v>89446</v>
       </c>
       <c r="F137">
-        <v>62613</v>
+        <v>74933</v>
       </c>
     </row>
     <row r="138" ht="15">
@@ -6268,7 +6280,7 @@
         <v>42500</v>
       </c>
       <c r="F139">
-        <v>21250</v>
+        <v>720218</v>
       </c>
     </row>
     <row r="140" ht="15">
@@ -6288,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1769100</v>
       </c>
     </row>
     <row r="141" ht="15">
@@ -6308,7 +6320,7 @@
         <v>149861750</v>
       </c>
       <c r="F141">
-        <v>27904259</v>
+        <v>-7285936</v>
       </c>
     </row>
     <row r="142" ht="15">
@@ -6328,7 +6340,7 @@
         <v>225589571</v>
       </c>
       <c r="F142">
-        <v>45117915</v>
+        <v>266237060</v>
       </c>
     </row>
     <row r="143" ht="15">
@@ -6348,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="144" ht="15">
@@ -6368,7 +6380,7 @@
         <v>-3247519</v>
       </c>
       <c r="F144">
-        <v>-809182</v>
+        <v>40340817</v>
       </c>
     </row>
     <row r="145" ht="15">
@@ -6388,7 +6400,7 @@
         <v>33035433</v>
       </c>
       <c r="F145">
-        <v>6607087</v>
+        <v>62984373</v>
       </c>
     </row>
     <row r="146" ht="15">
@@ -6408,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1800609</v>
       </c>
     </row>
     <row r="147" ht="15">
@@ -6428,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="148" ht="15">
@@ -6448,7 +6460,7 @@
         <v>-79500000</v>
       </c>
       <c r="F148">
-        <v>-63600000</v>
+        <v>28600480</v>
       </c>
     </row>
     <row r="149" ht="15">
@@ -6468,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2300425</v>
       </c>
     </row>
     <row r="150" ht="15">
@@ -6488,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>-22179211</v>
       </c>
     </row>
     <row r="151" ht="15">
@@ -6508,7 +6520,7 @@
         <v>-2792914</v>
       </c>
       <c r="F151">
-        <v>-279292</v>
+        <v>220708</v>
       </c>
     </row>
     <row r="152" ht="15">
@@ -6528,7 +6540,7 @@
         <v>-8734704</v>
       </c>
       <c r="F152">
-        <v>-2654511</v>
+        <v>-5404083</v>
       </c>
     </row>
     <row r="153" ht="15">
@@ -6548,7 +6560,7 @@
         <v>182042200</v>
       </c>
       <c r="F153">
-        <v>35397052</v>
+        <v>129330803</v>
       </c>
     </row>
     <row r="154" ht="15">
@@ -6568,7 +6580,7 @@
         <v>92663643</v>
       </c>
       <c r="F154">
-        <v>35735054</v>
+        <v>300359913</v>
       </c>
     </row>
     <row r="155" ht="15">
@@ -6588,7 +6600,7 @@
         <v>1886000</v>
       </c>
       <c r="F155">
-        <v>-2434200</v>
+        <v>-9972450</v>
       </c>
     </row>
     <row r="156" ht="15">
@@ -6605,10 +6617,10 @@
         <v>625</v>
       </c>
       <c r="E156">
-        <v>322190398</v>
+        <v>-30021000</v>
       </c>
       <c r="F156">
-        <v>129894323</v>
+        <v>-61350</v>
       </c>
     </row>
     <row r="157" ht="15">
@@ -6625,10 +6637,10 @@
         <v>629</v>
       </c>
       <c r="E157">
-        <v>853404396</v>
+        <v>322190398</v>
       </c>
       <c r="F157">
-        <v>597383080</v>
+        <v>771903238</v>
       </c>
     </row>
     <row r="158" ht="15">
@@ -6645,10 +6657,10 @@
         <v>633</v>
       </c>
       <c r="E158">
-        <v>2035630</v>
+        <v>853404396</v>
       </c>
       <c r="F158">
-        <v>610689</v>
+        <v>3934650453</v>
       </c>
     </row>
     <row r="159" ht="15">
@@ -6665,10 +6677,10 @@
         <v>637</v>
       </c>
       <c r="E159">
-        <v>41643260</v>
+        <v>2035630</v>
       </c>
       <c r="F159">
-        <v>26212048</v>
+        <v>5643060</v>
       </c>
     </row>
     <row r="160" ht="15">
@@ -6685,10 +6697,10 @@
         <v>641</v>
       </c>
       <c r="E160">
-        <v>3284000</v>
+        <v>41643260</v>
       </c>
       <c r="F160">
-        <v>656800</v>
+        <v>78987827</v>
       </c>
     </row>
     <row r="161" ht="15">
@@ -6705,10 +6717,10 @@
         <v>645</v>
       </c>
       <c r="E161">
-        <v>1198453386</v>
+        <v>3284000</v>
       </c>
       <c r="F161">
-        <v>266968254</v>
+        <v>6112400</v>
       </c>
     </row>
     <row r="162" ht="15">
@@ -6725,10 +6737,10 @@
         <v>649</v>
       </c>
       <c r="E162">
-        <v>3276000</v>
+        <v>1198453386</v>
       </c>
       <c r="F162">
-        <v>1638000</v>
+        <v>816661172</v>
       </c>
     </row>
     <row r="163" ht="15">
@@ -6745,10 +6757,10 @@
         <v>653</v>
       </c>
       <c r="E163">
-        <v>1245861</v>
+        <v>3276000</v>
       </c>
       <c r="F163">
-        <v>996689</v>
+        <v>4073980</v>
       </c>
     </row>
     <row r="164" ht="15">
@@ -6765,10 +6777,10 @@
         <v>657</v>
       </c>
       <c r="E164">
-        <v>125979414</v>
+        <v>1245861</v>
       </c>
       <c r="F164">
-        <v>25195881</v>
+        <v>-221644</v>
       </c>
     </row>
     <row r="165" ht="15">
@@ -6785,10 +6797,10 @@
         <v>661</v>
       </c>
       <c r="E165">
-        <v>-27424198</v>
+        <v>125979414</v>
       </c>
       <c r="F165">
-        <v>-5484840</v>
+        <v>82827992</v>
       </c>
     </row>
     <row r="166" ht="15">
@@ -6805,10 +6817,10 @@
         <v>665</v>
       </c>
       <c r="E166">
-        <v>29503989</v>
+        <v>-22352198</v>
       </c>
       <c r="F166">
-        <v>4750802</v>
+        <v>164670710</v>
       </c>
     </row>
     <row r="167" ht="15">
@@ -6825,10 +6837,10 @@
         <v>669</v>
       </c>
       <c r="E167">
-        <v>80908710</v>
+        <v>29503989</v>
       </c>
       <c r="F167">
-        <v>25813532</v>
+        <v>49546849</v>
       </c>
     </row>
     <row r="168" ht="15">
@@ -6845,10 +6857,10 @@
         <v>673</v>
       </c>
       <c r="E168">
-        <v>84783540</v>
+        <v>80908710</v>
       </c>
       <c r="F168">
-        <v>16956708</v>
+        <v>132841091</v>
       </c>
     </row>
     <row r="169" ht="15">
@@ -6865,10 +6877,10 @@
         <v>677</v>
       </c>
       <c r="E169">
-        <v>21845902</v>
+        <v>84783540</v>
       </c>
       <c r="F169">
-        <v>7017013</v>
+        <v>34230339</v>
       </c>
     </row>
     <row r="170" ht="15">
@@ -6885,10 +6897,10 @@
         <v>681</v>
       </c>
       <c r="E170">
-        <v>11430060</v>
+        <v>21845902</v>
       </c>
       <c r="F170">
-        <v>3286012</v>
+        <v>19159809</v>
       </c>
     </row>
     <row r="171" ht="15">
@@ -6905,10 +6917,10 @@
         <v>685</v>
       </c>
       <c r="E171">
-        <v>75000000</v>
+        <v>11430060</v>
       </c>
       <c r="F171">
-        <v>19000000</v>
+        <v>8796012</v>
       </c>
     </row>
     <row r="172" ht="15">
@@ -6925,10 +6937,10 @@
         <v>689</v>
       </c>
       <c r="E172">
-        <v>27598894</v>
+        <v>75000000</v>
       </c>
       <c r="F172">
-        <v>5519780</v>
+        <v>3818605402</v>
       </c>
     </row>
     <row r="173" ht="15">
@@ -6945,10 +6957,10 @@
         <v>693</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>27598894</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>17155465</v>
       </c>
     </row>
     <row r="174" ht="15">
@@ -6968,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>15772453</v>
       </c>
     </row>
     <row r="175" ht="15">
@@ -6988,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>15315123</v>
       </c>
     </row>
     <row r="176" ht="15">
@@ -7008,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>23040000</v>
       </c>
     </row>
     <row r="177" ht="15">
@@ -7025,10 +7037,10 @@
         <v>709</v>
       </c>
       <c r="E177">
-        <v>-30712000</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>-4666800</v>
+        <v>151928</v>
       </c>
     </row>
     <row r="178" ht="15">
@@ -7048,7 +7060,7 @@
         <v>5000000</v>
       </c>
       <c r="F178">
-        <v>2500000</v>
+        <v>2025682</v>
       </c>
     </row>
     <row r="179" ht="15">
@@ -7068,7 +7080,7 @@
         <v>207790000</v>
       </c>
       <c r="F179">
-        <v>41558000</v>
+        <v>102654600</v>
       </c>
     </row>
     <row r="180" ht="15">
@@ -7088,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>-7788417</v>
       </c>
     </row>
     <row r="181" ht="15">
@@ -7108,7 +7120,7 @@
         <v>-2924300</v>
       </c>
       <c r="F181">
-        <v>-877290</v>
+        <v>2522475</v>
       </c>
     </row>
     <row r="182" ht="15">
@@ -7128,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2370000</v>
       </c>
     </row>
     <row r="183" ht="15">
@@ -7148,7 +7160,7 @@
         <v>915000</v>
       </c>
       <c r="F183">
-        <v>274500</v>
+        <v>-175500</v>
       </c>
     </row>
     <row r="184" ht="15">
@@ -7168,7 +7180,7 @@
         <v>890125</v>
       </c>
       <c r="F184">
-        <v>445063</v>
+        <v>489338</v>
       </c>
     </row>
     <row r="185" ht="15">
@@ -7208,7 +7220,7 @@
         <v>85800</v>
       </c>
       <c r="F186">
-        <v>17160</v>
+        <v>1043168</v>
       </c>
     </row>
     <row r="187" ht="15">
@@ -7228,7 +7240,7 @@
         <v>7210100</v>
       </c>
       <c r="F187">
-        <v>2163030</v>
+        <v>4917930</v>
       </c>
     </row>
     <row r="188" ht="15">
@@ -7248,7 +7260,7 @@
         <v>8615366</v>
       </c>
       <c r="F188">
-        <v>1723073</v>
+        <v>3707565</v>
       </c>
     </row>
     <row r="189" ht="15">
@@ -7268,7 +7280,7 @@
         <v>-42945112</v>
       </c>
       <c r="F189">
-        <v>-8589022</v>
+        <v>12056167</v>
       </c>
     </row>
     <row r="190" ht="15">
@@ -7288,7 +7300,7 @@
         <v>7600000</v>
       </c>
       <c r="F190">
-        <v>3800000</v>
+        <v>4745200</v>
       </c>
     </row>
     <row r="191" ht="15">
@@ -7328,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>-850500</v>
       </c>
     </row>
     <row r="193" ht="15">
@@ -7348,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="194" ht="15">
@@ -7365,10 +7377,10 @@
         <v>777</v>
       </c>
       <c r="E194">
-        <v>2245377</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>673614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" ht="15">
@@ -7385,10 +7397,10 @@
         <v>781</v>
       </c>
       <c r="E195">
-        <v>34180316</v>
+        <v>2245377</v>
       </c>
       <c r="F195">
-        <v>10254095</v>
+        <v>6957044</v>
       </c>
     </row>
     <row r="196" ht="15">
@@ -7405,10 +7417,10 @@
         <v>785</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>34180316</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>63160314</v>
       </c>
     </row>
     <row r="197" ht="15">
@@ -7425,10 +7437,10 @@
         <v>789</v>
       </c>
       <c r="E197">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1470000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="198" ht="15">
@@ -7445,10 +7457,10 @@
         <v>793</v>
       </c>
       <c r="E198">
-        <v>1149370</v>
+        <v>30000000</v>
       </c>
       <c r="F198">
-        <v>138520</v>
+        <v>1551345</v>
       </c>
     </row>
     <row r="199" ht="15">
@@ -7465,10 +7477,10 @@
         <v>797</v>
       </c>
       <c r="E199">
-        <v>-21487314</v>
+        <v>1149370</v>
       </c>
       <c r="F199">
-        <v>-8594925</v>
+        <v>1422737</v>
       </c>
     </row>
     <row r="200" ht="15">
@@ -7485,10 +7497,10 @@
         <v>801</v>
       </c>
       <c r="E200">
-        <v>183666066</v>
+        <v>-21487314</v>
       </c>
       <c r="F200">
-        <v>57225820</v>
+        <v>149894155</v>
       </c>
     </row>
     <row r="201" ht="15">
@@ -7505,10 +7517,10 @@
         <v>805</v>
       </c>
       <c r="E201">
-        <v>-600000</v>
+        <v>183666066</v>
       </c>
       <c r="F201">
-        <v>-360000</v>
+        <v>244929060</v>
       </c>
     </row>
     <row r="202" ht="15">
@@ -7525,10 +7537,10 @@
         <v>809</v>
       </c>
       <c r="E202">
-        <v>-294201821</v>
+        <v>-600000</v>
       </c>
       <c r="F202">
-        <v>-58840364</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="203" ht="15">
@@ -7545,10 +7557,10 @@
         <v>813</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>-294201821</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>-99195265</v>
       </c>
     </row>
     <row r="204" ht="15">
@@ -7565,10 +7577,10 @@
         <v>817</v>
       </c>
       <c r="E204">
-        <v>5061700</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1518510</v>
+        <v>-64572187</v>
       </c>
     </row>
     <row r="205" ht="15">
@@ -7585,10 +7597,10 @@
         <v>821</v>
       </c>
       <c r="E205">
-        <v>-1894770</v>
+        <v>5061700</v>
       </c>
       <c r="F205">
-        <v>-3233053</v>
+        <v>38778904</v>
       </c>
     </row>
     <row r="206" ht="15">
@@ -7605,10 +7617,10 @@
         <v>825</v>
       </c>
       <c r="E206">
-        <v>-10101807</v>
+        <v>-1894770</v>
       </c>
       <c r="F206">
-        <v>-6360670</v>
+        <v>118241498</v>
       </c>
     </row>
     <row r="207" ht="15">
@@ -7625,10 +7637,10 @@
         <v>829</v>
       </c>
       <c r="E207">
-        <v>15414761</v>
+        <v>-10101807</v>
       </c>
       <c r="F207">
-        <v>-3880013</v>
+        <v>600409</v>
       </c>
     </row>
     <row r="208" ht="15">
@@ -7645,10 +7657,10 @@
         <v>833</v>
       </c>
       <c r="E208">
-        <v>69691116</v>
+        <v>30431489</v>
       </c>
       <c r="F208">
-        <v>19587488</v>
+        <v>229499766</v>
       </c>
     </row>
     <row r="209" ht="15">
@@ -7665,10 +7677,10 @@
         <v>837</v>
       </c>
       <c r="E209">
-        <v>36924767</v>
+        <v>69691116</v>
       </c>
       <c r="F209">
-        <v>11075416</v>
+        <v>163810485</v>
       </c>
     </row>
     <row r="210" ht="15">
@@ -7685,10 +7697,10 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>2500000</v>
+        <v>36924767</v>
       </c>
       <c r="F210">
-        <v>1000000</v>
+        <v>58286800</v>
       </c>
     </row>
     <row r="211" ht="15">
@@ -7705,10 +7717,10 @@
         <v>845</v>
       </c>
       <c r="E211">
-        <v>28180880</v>
+        <v>2500000</v>
       </c>
       <c r="F211">
-        <v>5636176</v>
+        <v>6422000</v>
       </c>
     </row>
     <row r="212" ht="15">
@@ -7725,10 +7737,10 @@
         <v>849</v>
       </c>
       <c r="E212">
-        <v>156807489</v>
+        <v>28180880</v>
       </c>
       <c r="F212">
-        <v>30026611</v>
+        <v>33429768</v>
       </c>
     </row>
     <row r="213" ht="15">
@@ -7745,10 +7757,10 @@
         <v>853</v>
       </c>
       <c r="E213">
-        <v>93683929</v>
+        <v>156807489</v>
       </c>
       <c r="F213">
-        <v>18736786</v>
+        <v>63209674</v>
       </c>
     </row>
     <row r="214" ht="15">
@@ -7765,10 +7777,10 @@
         <v>857</v>
       </c>
       <c r="E214">
-        <v>128689949</v>
+        <v>93683929</v>
       </c>
       <c r="F214">
-        <v>25737991</v>
+        <v>91868236</v>
       </c>
     </row>
     <row r="215" ht="15">
@@ -7785,10 +7797,10 @@
         <v>861</v>
       </c>
       <c r="E215">
-        <v>139325940</v>
+        <v>159317761</v>
       </c>
       <c r="F215">
-        <v>16007680</v>
+        <v>325517500</v>
       </c>
     </row>
     <row r="216" ht="15">
@@ -7805,10 +7817,10 @@
         <v>865</v>
       </c>
       <c r="E216">
-        <v>350000</v>
+        <v>128689949</v>
       </c>
       <c r="F216">
-        <v>315000</v>
+        <v>146536101</v>
       </c>
     </row>
     <row r="217" ht="15">
@@ -7825,10 +7837,10 @@
         <v>869</v>
       </c>
       <c r="E217">
-        <v>8685201</v>
+        <v>350000</v>
       </c>
       <c r="F217">
-        <v>1737041</v>
+        <v>24102087</v>
       </c>
     </row>
     <row r="218" ht="15">
@@ -7845,10 +7857,10 @@
         <v>873</v>
       </c>
       <c r="E218">
-        <v>3124515</v>
+        <v>8685201</v>
       </c>
       <c r="F218">
-        <v>624903</v>
+        <v>13988879</v>
       </c>
     </row>
     <row r="219" ht="15">
@@ -7865,10 +7877,10 @@
         <v>877</v>
       </c>
       <c r="E219">
-        <v>128475</v>
+        <v>3124515</v>
       </c>
       <c r="F219">
-        <v>89933</v>
+        <v>624903</v>
       </c>
     </row>
     <row r="220" ht="15">
@@ -7885,10 +7897,10 @@
         <v>881</v>
       </c>
       <c r="E220">
-        <v>10127932</v>
+        <v>128475</v>
       </c>
       <c r="F220">
-        <v>7089552</v>
+        <v>525723</v>
       </c>
     </row>
     <row r="221" ht="15">
@@ -7905,10 +7917,10 @@
         <v>885</v>
       </c>
       <c r="E221">
-        <v>75200</v>
+        <v>10127932</v>
       </c>
       <c r="F221">
-        <v>37600</v>
+        <v>14880377</v>
       </c>
     </row>
     <row r="222" ht="15">
@@ -7925,10 +7937,10 @@
         <v>889</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>75200</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2721285</v>
       </c>
     </row>
     <row r="223" ht="15">
@@ -7945,10 +7957,10 @@
         <v>893</v>
       </c>
       <c r="E223">
-        <v>-1142500</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>-123250</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="224" ht="15">
@@ -7965,10 +7977,10 @@
         <v>897</v>
       </c>
       <c r="E224">
-        <v>16276305</v>
+        <v>-1142500</v>
       </c>
       <c r="F224">
-        <v>4882892</v>
+        <v>2526750</v>
       </c>
     </row>
     <row r="225" ht="15">
@@ -7985,10 +7997,10 @@
         <v>901</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>16276305</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>38282329</v>
       </c>
     </row>
     <row r="226" ht="15">
@@ -8005,10 +8017,10 @@
         <v>905</v>
       </c>
       <c r="E226">
-        <v>-4966700</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>-1490010</v>
+        <v>495630</v>
       </c>
     </row>
     <row r="227" ht="15">
@@ -8025,10 +8037,10 @@
         <v>909</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>-4966700</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>64565883</v>
       </c>
     </row>
     <row r="228" ht="15">
@@ -8045,10 +8057,10 @@
         <v>913</v>
       </c>
       <c r="E228">
-        <v>706000</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>258400</v>
+        <v>6450000</v>
       </c>
     </row>
     <row r="229" ht="15">
@@ -8065,10 +8077,10 @@
         <v>917</v>
       </c>
       <c r="E229">
-        <v>50000</v>
+        <v>706000</v>
       </c>
       <c r="F229">
-        <v>40000</v>
+        <v>8167338</v>
       </c>
     </row>
     <row r="230" ht="15">
@@ -8085,10 +8097,10 @@
         <v>921</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>570447</v>
       </c>
     </row>
     <row r="231" ht="15">
@@ -8108,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="232" ht="15">
@@ -8125,10 +8137,10 @@
         <v>929</v>
       </c>
       <c r="E232">
-        <v>5279883</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1583966</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="233" ht="15">
@@ -8145,10 +8157,10 @@
         <v>933</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>5279883</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>11816159</v>
       </c>
     </row>
     <row r="234" ht="15">
@@ -8165,10 +8177,10 @@
         <v>937</v>
       </c>
       <c r="E234">
-        <v>5447395</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1634219</v>
+        <v>930300</v>
       </c>
     </row>
     <row r="235" ht="15">
@@ -8185,10 +8197,10 @@
         <v>941</v>
       </c>
       <c r="E235">
-        <v>116460558</v>
+        <v>5447395</v>
       </c>
       <c r="F235">
-        <v>54162682</v>
+        <v>8574721</v>
       </c>
     </row>
     <row r="236" ht="15">
@@ -8205,10 +8217,10 @@
         <v>945</v>
       </c>
       <c r="E236">
-        <v>1729742761</v>
+        <v>116460558</v>
       </c>
       <c r="F236">
-        <v>343297474</v>
+        <v>237918724</v>
       </c>
     </row>
     <row r="237" ht="15">
@@ -8225,10 +8237,10 @@
         <v>949</v>
       </c>
       <c r="E237">
-        <v>4798000</v>
+        <v>1729742761</v>
       </c>
       <c r="F237">
-        <v>959600</v>
+        <v>4408789980</v>
       </c>
     </row>
     <row r="238" ht="15">
@@ -8245,10 +8257,10 @@
         <v>953</v>
       </c>
       <c r="E238">
-        <v>719014000</v>
+        <v>4798000</v>
       </c>
       <c r="F238">
-        <v>139002800</v>
+        <v>58038490</v>
       </c>
     </row>
     <row r="239" ht="15">
@@ -8265,10 +8277,10 @@
         <v>957</v>
       </c>
       <c r="E239">
-        <v>437576594</v>
+        <v>719014000</v>
       </c>
       <c r="F239">
-        <v>46775319</v>
+        <v>332538160</v>
       </c>
     </row>
     <row r="240" ht="15">
@@ -8285,10 +8297,10 @@
         <v>961</v>
       </c>
       <c r="E240">
-        <v>222480246</v>
+        <v>437576594</v>
       </c>
       <c r="F240">
-        <v>88992099</v>
+        <v>69955039</v>
       </c>
     </row>
     <row r="241" ht="15">
@@ -8305,10 +8317,10 @@
         <v>965</v>
       </c>
       <c r="E241">
-        <v>424754508</v>
+        <v>222480246</v>
       </c>
       <c r="F241">
-        <v>34002815</v>
+        <v>370578995</v>
       </c>
     </row>
     <row r="242" ht="15">
@@ -8325,10 +8337,10 @@
         <v>969</v>
       </c>
       <c r="E242">
-        <v>14866530</v>
+        <v>425172172</v>
       </c>
       <c r="F242">
-        <v>7433265</v>
+        <v>286645680</v>
       </c>
     </row>
     <row r="243" ht="15">
@@ -8345,10 +8357,10 @@
         <v>973</v>
       </c>
       <c r="E243">
-        <v>239807694</v>
+        <v>14866530</v>
       </c>
       <c r="F243">
-        <v>119455979</v>
+        <v>51173370</v>
       </c>
     </row>
     <row r="244" ht="15">
@@ -8365,10 +8377,10 @@
         <v>977</v>
       </c>
       <c r="E244">
-        <v>5623096</v>
+        <v>239807694</v>
       </c>
       <c r="F244">
-        <v>2049238</v>
+        <v>416197259</v>
       </c>
     </row>
     <row r="245" ht="15">
@@ -8385,10 +8397,10 @@
         <v>981</v>
       </c>
       <c r="E245">
-        <v>64566517</v>
+        <v>5623096</v>
       </c>
       <c r="F245">
-        <v>12690503</v>
+        <v>1449238</v>
       </c>
     </row>
     <row r="246" ht="15">
@@ -8405,10 +8417,10 @@
         <v>985</v>
       </c>
       <c r="E246">
-        <v>-14023301</v>
+        <v>64566517</v>
       </c>
       <c r="F246">
-        <v>-3007790</v>
+        <v>83885961</v>
       </c>
     </row>
     <row r="247" ht="15">
@@ -8425,10 +8437,10 @@
         <v>989</v>
       </c>
       <c r="E247">
-        <v>11474151</v>
+        <v>-14023301</v>
       </c>
       <c r="F247">
-        <v>3824717</v>
+        <v>91292240</v>
       </c>
     </row>
     <row r="248" ht="15">
@@ -8445,10 +8457,10 @@
         <v>993</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>11474151</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>7219077</v>
       </c>
     </row>
     <row r="249" ht="15">
@@ -8468,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>7800000</v>
       </c>
     </row>
     <row r="250" ht="15">
@@ -8485,10 +8497,10 @@
         <v>1001</v>
       </c>
       <c r="E250">
-        <v>-4390300</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>-878060</v>
+        <v>-16600000</v>
       </c>
     </row>
     <row r="251" ht="15">
@@ -8505,10 +8517,10 @@
         <v>1005</v>
       </c>
       <c r="E251">
-        <v>68417893</v>
+        <v>-4390300</v>
       </c>
       <c r="F251">
-        <v>38945157</v>
+        <v>94316574</v>
       </c>
     </row>
     <row r="252" ht="15">
@@ -8525,10 +8537,10 @@
         <v>1009</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>68417893</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>50832037</v>
       </c>
     </row>
     <row r="253" ht="15">
@@ -8568,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>-1763695</v>
       </c>
     </row>
     <row r="255" ht="15">
@@ -8585,10 +8597,10 @@
         <v>1021</v>
       </c>
       <c r="E255">
-        <v>24216728</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>9348364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" ht="15">
@@ -8605,10 +8617,10 @@
         <v>1025</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>24216728</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>12653864</v>
       </c>
     </row>
     <row r="257" ht="15">
@@ -8625,10 +8637,10 @@
         <v>1029</v>
       </c>
       <c r="E257">
-        <v>-9474999</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>-1895000</v>
+        <v>1091280</v>
       </c>
     </row>
     <row r="258" ht="15">
@@ -8645,10 +8657,10 @@
         <v>1033</v>
       </c>
       <c r="E258">
-        <v>2000000</v>
+        <v>-9474999</v>
       </c>
       <c r="F258">
-        <v>600000</v>
+        <v>-6321975</v>
       </c>
     </row>
     <row r="259" ht="15">
@@ -8665,10 +8677,10 @@
         <v>1037</v>
       </c>
       <c r="E259">
-        <v>58000</v>
+        <v>2000000</v>
       </c>
       <c r="F259">
-        <v>40600</v>
+        <v>-5037237</v>
       </c>
     </row>
     <row r="260" ht="15">
@@ -8685,10 +8697,30 @@
         <v>1041</v>
       </c>
       <c r="E260">
+        <v>58000</v>
+      </c>
+      <c r="F260">
+        <v>4122285</v>
+      </c>
+    </row>
+    <row r="261" ht="15">
+      <c r="A261" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E261">
         <v>0</v>
       </c>
-      <c r="F260">
-        <v>0</v>
+      <c r="F261">
+        <v>-1941374</v>
       </c>
     </row>
   </sheetData>
